--- a/DPF_calculator_Scholkmann.xlsx
+++ b/DPF_calculator_Scholkmann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OU2020\Projects\Aging-fNIRS__SFC-NVC_2022\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooners-my.sharepoint.com/personal/peter-mukli_ouhsc_edu/Documents/GeroLab_Projects/Aging_CN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC52BD4-3F11-4F9D-A2E6-F295A32E80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DC52BD4-3F11-4F9D-A2E6-F295A32E80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A763DEE2-11E1-4261-A2F2-35DCF501BBE8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,16 +568,16 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.41796875" customWidth="1"/>
-    <col min="4" max="4" width="27.68359375" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>5.3756824559106917</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -623,7 +623,7 @@
         <v>5.1478275760617862</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -639,7 +639,7 @@
         <v>6.2233050115501101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -655,23 +655,23 @@
         <v>5.1478275760617862</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.2101002760616666</v>
+        <v>6.2679186312986985</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>5.1478275760617862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>5.2056459312987045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -687,7 +687,7 @@
         <v>6.2486231077828052</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -703,7 +703,7 @@
         <v>6.4492250784246608</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -719,7 +719,7 @@
         <v>6.3993863525648749</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -735,7 +735,7 @@
         <v>6.3242448064376049</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -751,7 +751,7 @@
         <v>6.6221443882047879</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -767,7 +767,7 @@
         <v>6.5483164922542301</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -783,7 +783,7 @@
         <v>6.4740700894625434</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5.2628659783027842</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -815,7 +815,7 @@
         <v>5.2056459312987045</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5.5957497369953444</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5.5413596340795266</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -863,7 +863,7 @@
         <v>6.5236150901005203</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -879,7 +879,7 @@
         <v>5.6228010134944952</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -895,7 +895,7 @@
         <v>5.0893595374637925</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -911,7 +911,7 @@
         <v>5.4865680523878382</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -927,7 +927,7 @@
         <v>5.0003044014983971</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -943,7 +943,7 @@
         <v>6.7199603986782677</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -959,7 +959,7 @@
         <v>5.1186783014383082</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -975,7 +975,7 @@
         <v>6.8412843385361839</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -991,7 +991,7 @@
         <v>6.3242448064376049</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>6.4492250784246608</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>6.4740700894625434</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>6.4492250784246608</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>6.5975804901050878</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>6.5729714056400326</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>5.4865680523878382</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>6.5483164922542301</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>6.4988665213495551</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>6.6221443882047879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>6.4243307519374184</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>5.459014371692092</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6.2738851546042724</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>5.4865680523878382</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>6.695571144035398</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>5.5686034796606236</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>5.4865680523878382</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>5.2343278278085563</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>6.5483164922542301</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>6.1724967842770866</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>6.3242448064376049</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>6.1724967842770866</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>6.2486231077828052</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>6.3242448064376049</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>6.4492250784246608</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>5.2343278278085563</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>

--- a/DPF_calculator_Scholkmann.xlsx
+++ b/DPF_calculator_Scholkmann.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooners-my.sharepoint.com/personal/peter-mukli_ouhsc_edu/Documents/GeroLab_Projects/Aging_CN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DC52BD4-3F11-4F9D-A2E6-F295A32E80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A763DEE2-11E1-4261-A2F2-35DCF501BBE8}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{0DC52BD4-3F11-4F9D-A2E6-F295A32E80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74ABBF75-68B5-469C-9991-8435815EEFF7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45870" yWindow="3225" windowWidth="12795" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B52" sqref="A2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,10 +593,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>35</v>
       </c>
       <c r="C2">
@@ -608,10 +609,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>27</v>
       </c>
       <c r="C3">
@@ -624,10 +625,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>67</v>
       </c>
       <c r="C4">
@@ -640,10 +641,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>27</v>
       </c>
       <c r="C5">
@@ -656,10 +657,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>29</v>
       </c>
       <c r="C6">
@@ -672,10 +673,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>68</v>
       </c>
       <c r="C7">
@@ -688,10 +689,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>76</v>
       </c>
       <c r="C8">
@@ -704,10 +705,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>74</v>
       </c>
       <c r="C9">
@@ -720,10 +721,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>71</v>
       </c>
       <c r="C10">
@@ -736,10 +737,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>83</v>
       </c>
       <c r="C11">
@@ -752,10 +753,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>80</v>
       </c>
       <c r="C12">
@@ -768,10 +769,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>77</v>
       </c>
       <c r="C13">
@@ -784,10 +785,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>31</v>
       </c>
       <c r="C14">
@@ -800,10 +801,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>29</v>
       </c>
       <c r="C15">
@@ -816,10 +817,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>43</v>
       </c>
       <c r="C16">
@@ -832,10 +833,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>41</v>
       </c>
       <c r="C17">
@@ -848,10 +849,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>79</v>
       </c>
       <c r="C18">
@@ -864,10 +865,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>44</v>
       </c>
       <c r="C19">
@@ -880,10 +881,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>25</v>
       </c>
       <c r="C20">
@@ -896,10 +897,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>39</v>
       </c>
       <c r="C21">
@@ -912,10 +913,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22">
@@ -928,10 +929,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>87</v>
       </c>
       <c r="C23">
@@ -944,10 +945,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>26</v>
       </c>
       <c r="C24">
@@ -960,10 +961,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>92</v>
       </c>
       <c r="C25">
@@ -976,10 +977,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>71</v>
       </c>
       <c r="C26">
@@ -992,10 +993,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>76</v>
       </c>
       <c r="C27">
@@ -1008,10 +1009,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>77</v>
       </c>
       <c r="C28">
@@ -1024,10 +1025,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>76</v>
       </c>
       <c r="C29">
@@ -1040,10 +1041,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>82</v>
       </c>
       <c r="C30">
@@ -1056,10 +1057,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>81</v>
       </c>
       <c r="C31">
@@ -1072,10 +1073,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>39</v>
       </c>
       <c r="C32">
@@ -1088,10 +1089,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>80</v>
       </c>
       <c r="C33">
@@ -1104,10 +1105,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>78</v>
       </c>
       <c r="C34">
@@ -1120,10 +1121,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>83</v>
       </c>
       <c r="C35">
@@ -1136,10 +1137,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>75</v>
       </c>
       <c r="C36">
@@ -1152,10 +1153,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>38</v>
       </c>
       <c r="C37">
@@ -1168,10 +1169,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>69</v>
       </c>
       <c r="C38">
@@ -1184,10 +1185,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>39</v>
       </c>
       <c r="C39">
@@ -1200,10 +1201,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>86</v>
       </c>
       <c r="C40">
@@ -1216,10 +1217,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>42</v>
       </c>
       <c r="C41">
@@ -1232,10 +1233,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42">
@@ -1248,10 +1249,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>30</v>
       </c>
       <c r="C43">
@@ -1264,10 +1265,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>80</v>
       </c>
       <c r="C44">
@@ -1280,10 +1281,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>65</v>
       </c>
       <c r="C45">
@@ -1296,10 +1297,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>71</v>
       </c>
       <c r="C46">
@@ -1312,10 +1313,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>65</v>
       </c>
       <c r="C47">
@@ -1328,10 +1329,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>68</v>
       </c>
       <c r="C48">
@@ -1344,10 +1345,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>71</v>
       </c>
       <c r="C49">
@@ -1360,10 +1361,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>76</v>
       </c>
       <c r="C50">
@@ -1376,10 +1377,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>30</v>
       </c>
       <c r="C51">
@@ -1392,10 +1393,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>25</v>
       </c>
       <c r="C52">
